--- a/Study 4/Models_link/Mapping/Map_GCAM.xlsx
+++ b/Study 4/Models_link/Mapping/Map_GCAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 4\Models_link\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A66E34-3AED-40A0-AE9E-22BAC357107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F31902-6B1B-486F-814F-9DDF01027939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="786">
   <si>
     <t>Activity</t>
   </si>
@@ -2399,6 +2399,9 @@
   </si>
   <si>
     <t>domestic_electricity_mix_update</t>
+  </si>
+  <si>
+    <t>Hydrogen mix evolution</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2487,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="6"/>
@@ -2790,13 +2798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3316,56 @@
         <v>776</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" t="s">
+        <v>783</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>784</v>
+      </c>
+      <c r="J22" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>783</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>784</v>
+      </c>
+      <c r="J23" t="s">
+        <v>785</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3317,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FC06A9-C5DE-4D61-A94D-90BFF39B3D90}">
   <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,10 +3770,10 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C160" sqref="C160:C163"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,7 +5184,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20 A2:A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5139,11 +5196,11 @@
   <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E16" sqref="E16"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:A45"/>
+      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Study 4/Models_link/Mapping/Map_GCAM.xlsx
+++ b/Study 4/Models_link/Mapping/Map_GCAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 4\Models_link\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F31902-6B1B-486F-814F-9DDF01027939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950C15C-27A5-4C1D-BCA9-FF5F7D71A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shock_map" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Commodity!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shock_map!$A$1:$K$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$A$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="787">
   <si>
     <t>Activity</t>
   </si>
@@ -2401,7 +2402,10 @@
     <t>domestic_electricity_mix_update</t>
   </si>
   <si>
-    <t>Hydrogen mix evolution</t>
+    <t>Steel mix evolution</t>
+  </si>
+  <si>
+    <t>Production|Steel|EAF_scrap</t>
   </si>
 </sst>
 </file>
@@ -2487,12 +2491,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="6"/>
@@ -2798,30 +2797,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>735</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>736</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>737</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>738</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>739</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>735</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>736</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>737</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>738</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>739</v>
       </c>
@@ -3316,15 +3315,15 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>742</v>
       </c>
       <c r="B22" t="s">
-        <v>778</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="F22" t="s">
         <v>783</v>
@@ -3339,15 +3338,15 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>780</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>771</v>
       </c>
       <c r="F23" t="s">
         <v>783</v>
@@ -3362,10 +3361,54 @@
         <v>785</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>749</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F24" t="s">
+        <v>783</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>784</v>
+      </c>
+      <c r="J24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
+        <v>783</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>784</v>
+      </c>
+      <c r="J25" t="s">
+        <v>785</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:K23" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3378,311 +3421,311 @@
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
     </row>
   </sheetData>
@@ -3699,12 +3742,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -3712,7 +3755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -3728,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -3736,7 +3779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -3744,7 +3787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -3752,7 +3795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -3770,19 +3813,19 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:A40"/>
+      <selection pane="bottomRight" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="121.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="121.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -3793,7 +3836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3801,7 +3844,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3809,7 +3852,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3817,7 +3860,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3825,7 +3868,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -3833,7 +3876,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -3841,7 +3884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -3849,7 +3892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -3857,7 +3900,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -3865,7 +3908,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -3873,7 +3916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -3881,7 +3924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -3889,7 +3932,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -3897,7 +3940,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -3905,7 +3948,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3913,7 +3956,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -3921,7 +3964,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -3929,7 +3972,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -3945,7 +3988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -3953,7 +3996,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -3961,7 +4004,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -3969,7 +4012,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -3977,7 +4020,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -3985,7 +4028,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3993,7 +4036,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -4001,7 +4044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -4009,7 +4052,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -4017,7 +4060,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -4025,7 +4068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -4033,7 +4076,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -4041,7 +4084,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -4049,7 +4092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -4057,7 +4100,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -4065,7 +4108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -4073,7 +4116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -4081,7 +4124,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -4089,7 +4132,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -4097,7 +4140,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -4105,7 +4148,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -4113,7 +4156,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -4121,7 +4164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -4129,7 +4172,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -4137,7 +4180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -4145,7 +4188,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -4153,7 +4196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -4161,7 +4204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -4169,7 +4212,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -4177,7 +4220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -4193,7 +4236,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -4201,7 +4244,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -4217,7 +4260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -4225,7 +4268,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -4233,7 +4276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -4244,7 +4287,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>216</v>
       </c>
@@ -4252,7 +4295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -4260,7 +4303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -4268,7 +4311,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>219</v>
       </c>
@@ -4276,7 +4319,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -4284,7 +4327,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -4292,7 +4335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -4300,7 +4343,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -4308,7 +4351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -4316,7 +4359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -4324,7 +4367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -4332,7 +4375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -4340,7 +4383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -4348,7 +4391,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -4356,7 +4399,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -4364,7 +4407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -4372,7 +4415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -4380,7 +4423,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -4388,7 +4431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>234</v>
       </c>
@@ -4396,7 +4439,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -4404,7 +4447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -4412,7 +4455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -4420,7 +4463,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -4428,7 +4471,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -4436,7 +4479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -4444,7 +4487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -4452,7 +4495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -4460,7 +4503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>243</v>
       </c>
@@ -4468,7 +4511,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>244</v>
       </c>
@@ -4476,7 +4519,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>245</v>
       </c>
@@ -4484,7 +4527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>246</v>
       </c>
@@ -4492,7 +4535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>247</v>
       </c>
@@ -4500,7 +4543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -4508,7 +4551,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>249</v>
       </c>
@@ -4516,7 +4559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -4524,7 +4567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -4532,7 +4575,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>252</v>
       </c>
@@ -4540,7 +4583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>253</v>
       </c>
@@ -4548,7 +4591,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -4556,7 +4599,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>255</v>
       </c>
@@ -4564,7 +4607,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -4572,7 +4615,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>257</v>
       </c>
@@ -4580,7 +4623,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -4588,7 +4631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>259</v>
       </c>
@@ -4596,7 +4639,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>260</v>
       </c>
@@ -4604,7 +4647,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>261</v>
       </c>
@@ -4612,7 +4655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -4620,7 +4663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>263</v>
       </c>
@@ -4628,7 +4671,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -4636,7 +4679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>265</v>
       </c>
@@ -4644,7 +4687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>266</v>
       </c>
@@ -4652,7 +4695,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>267</v>
       </c>
@@ -4660,7 +4703,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>268</v>
       </c>
@@ -4668,7 +4711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>269</v>
       </c>
@@ -4676,7 +4719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>270</v>
       </c>
@@ -4684,7 +4727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>271</v>
       </c>
@@ -4692,7 +4735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>272</v>
       </c>
@@ -4700,7 +4743,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -4708,7 +4751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>274</v>
       </c>
@@ -4716,7 +4759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>275</v>
       </c>
@@ -4724,7 +4767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -4732,7 +4775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>277</v>
       </c>
@@ -4740,7 +4783,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>278</v>
       </c>
@@ -4748,7 +4791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>279</v>
       </c>
@@ -4756,7 +4799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>280</v>
       </c>
@@ -4764,7 +4807,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>281</v>
       </c>
@@ -4772,7 +4815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>282</v>
       </c>
@@ -4780,7 +4823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>283</v>
       </c>
@@ -4788,7 +4831,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>284</v>
       </c>
@@ -4799,7 +4842,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -4810,7 +4853,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>286</v>
       </c>
@@ -4818,7 +4861,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>287</v>
       </c>
@@ -4829,7 +4872,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>288</v>
       </c>
@@ -4837,7 +4880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>289</v>
       </c>
@@ -4845,7 +4888,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>290</v>
       </c>
@@ -4853,7 +4896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>291</v>
       </c>
@@ -4861,7 +4904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>292</v>
       </c>
@@ -4869,7 +4912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -4877,7 +4920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>294</v>
       </c>
@@ -4885,7 +4928,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -4893,7 +4936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>296</v>
       </c>
@@ -4901,7 +4944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>297</v>
       </c>
@@ -4909,7 +4952,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>298</v>
       </c>
@@ -4917,7 +4960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>299</v>
       </c>
@@ -4925,7 +4968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -4933,7 +4976,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>301</v>
       </c>
@@ -4941,7 +4984,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>302</v>
       </c>
@@ -4949,7 +4992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>303</v>
       </c>
@@ -4957,7 +5000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -4965,7 +5008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>305</v>
       </c>
@@ -4973,7 +5016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -4981,7 +5024,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>307</v>
       </c>
@@ -4989,7 +5032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -4997,7 +5040,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -5005,7 +5048,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -5013,7 +5056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>311</v>
       </c>
@@ -5021,7 +5064,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>312</v>
       </c>
@@ -5029,7 +5072,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>313</v>
       </c>
@@ -5037,7 +5080,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>314</v>
       </c>
@@ -5045,7 +5088,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>315</v>
       </c>
@@ -5053,7 +5096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>316</v>
       </c>
@@ -5061,7 +5104,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5112,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>771</v>
       </c>
@@ -5080,7 +5123,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>772</v>
       </c>
@@ -5091,7 +5134,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>770</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>317</v>
       </c>
@@ -5110,7 +5153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>318</v>
       </c>
@@ -5118,7 +5161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>319</v>
       </c>
@@ -5126,7 +5169,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>320</v>
       </c>
@@ -5134,7 +5177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>321</v>
       </c>
@@ -5142,7 +5185,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>322</v>
       </c>
@@ -5150,7 +5193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>323</v>
       </c>
@@ -5158,7 +5201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>324</v>
       </c>
@@ -5166,7 +5209,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>325</v>
       </c>
@@ -5174,7 +5217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -5184,7 +5227,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20 A2:A50">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5195,26 +5238,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DC6C0B-14CA-49AC-B9FE-393229EC3E0E}">
   <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E16" sqref="E16"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="128.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="128.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="128.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="128.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -5234,7 +5277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>327</v>
       </c>
@@ -5242,7 +5285,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -5250,7 +5293,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -5258,7 +5301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>330</v>
       </c>
@@ -5267,7 +5310,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -5275,7 +5318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -5286,7 +5329,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -5294,7 +5337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -5305,7 +5348,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -5316,7 +5359,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -5324,7 +5367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -5332,7 +5375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -5340,7 +5383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5391,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -5356,7 +5399,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -5365,7 +5408,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -5373,7 +5416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -5381,7 +5424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>342</v>
       </c>
@@ -5389,7 +5432,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -5398,7 +5441,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -5406,7 +5449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -5414,7 +5457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>346</v>
       </c>
@@ -5422,7 +5465,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>347</v>
       </c>
@@ -5433,7 +5476,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>348</v>
       </c>
@@ -5441,7 +5484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -5449,7 +5492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -5460,7 +5503,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5471,7 +5514,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>351</v>
       </c>
@@ -5479,7 +5522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>352</v>
       </c>
@@ -5491,7 +5534,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -5499,7 +5542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>354</v>
       </c>
@@ -5507,7 +5550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>355</v>
       </c>
@@ -5515,7 +5558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>356</v>
       </c>
@@ -5523,7 +5566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>357</v>
       </c>
@@ -5531,7 +5574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -5539,7 +5582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>359</v>
       </c>
@@ -5550,7 +5593,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>360</v>
       </c>
@@ -5558,7 +5601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -5566,7 +5609,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>362</v>
       </c>
@@ -5574,7 +5617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -5582,7 +5625,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>364</v>
       </c>
@@ -5590,7 +5633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>774</v>
       </c>
@@ -5598,7 +5641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>775</v>
       </c>
@@ -5606,7 +5649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>776</v>
       </c>
@@ -5614,7 +5657,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>777</v>
       </c>
@@ -5622,7 +5665,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>778</v>
       </c>
@@ -5630,7 +5673,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -5638,7 +5681,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -5646,7 +5689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>366</v>
       </c>
@@ -5654,7 +5697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>367</v>
       </c>
@@ -5662,7 +5705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>368</v>
       </c>
@@ -5670,7 +5713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>369</v>
       </c>
@@ -5678,7 +5721,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>370</v>
       </c>
@@ -5686,7 +5729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>371</v>
       </c>
@@ -5694,7 +5737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -5702,7 +5745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>373</v>
       </c>
@@ -5710,7 +5753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>374</v>
       </c>
@@ -5718,7 +5761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -5726,7 +5769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>376</v>
       </c>
@@ -5734,7 +5777,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -5742,7 +5785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -5753,7 +5796,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -5761,7 +5804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>380</v>
       </c>
@@ -5772,7 +5815,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>381</v>
       </c>
@@ -5783,7 +5826,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>382</v>
       </c>
@@ -5791,7 +5834,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>383</v>
       </c>
@@ -5799,7 +5842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>384</v>
       </c>
@@ -5810,7 +5853,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>385</v>
       </c>
@@ -5818,7 +5861,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>386</v>
       </c>
@@ -5826,7 +5869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>387</v>
       </c>
@@ -5834,7 +5877,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>388</v>
       </c>
@@ -5842,7 +5885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>389</v>
       </c>
@@ -5850,7 +5893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>390</v>
       </c>
@@ -5858,7 +5901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>391</v>
       </c>
@@ -5869,7 +5912,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -5880,7 +5923,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>393</v>
       </c>
@@ -5888,7 +5931,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>394</v>
       </c>
@@ -5896,7 +5939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>395</v>
       </c>
@@ -5904,7 +5947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>396</v>
       </c>
@@ -5916,7 +5959,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>397</v>
       </c>
@@ -5924,7 +5967,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>398</v>
       </c>
@@ -5932,7 +5975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>399</v>
       </c>
@@ -5940,7 +5983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>400</v>
       </c>
@@ -5948,7 +5991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>401</v>
       </c>
@@ -5957,7 +6000,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -5965,7 +6008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -5973,7 +6016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>403</v>
       </c>
@@ -5981,7 +6024,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>404</v>
       </c>
@@ -5989,7 +6032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>405</v>
       </c>
@@ -6000,7 +6043,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>406</v>
       </c>
@@ -6008,7 +6051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -6016,7 +6059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>407</v>
       </c>
@@ -6024,7 +6067,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>408</v>
       </c>
@@ -6032,7 +6075,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>409</v>
       </c>
@@ -6040,7 +6083,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>410</v>
       </c>
@@ -6048,7 +6091,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>411</v>
       </c>
@@ -6056,7 +6099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6064,7 +6107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>412</v>
       </c>
@@ -6072,7 +6115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>413</v>
       </c>
@@ -6081,7 +6124,7 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>414</v>
       </c>
@@ -6089,7 +6132,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>415</v>
       </c>
@@ -6100,7 +6143,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -6108,7 +6151,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>417</v>
       </c>
@@ -6116,7 +6159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>418</v>
       </c>
@@ -6124,7 +6167,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>419</v>
       </c>
@@ -6132,7 +6175,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>420</v>
       </c>
@@ -6140,7 +6183,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>421</v>
       </c>
@@ -6148,7 +6191,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>422</v>
       </c>
@@ -6156,7 +6199,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>423</v>
       </c>
@@ -6164,7 +6207,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>424</v>
       </c>
@@ -6172,7 +6215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>425</v>
       </c>
@@ -6180,7 +6223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>426</v>
       </c>
@@ -6188,7 +6231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -6196,7 +6239,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>427</v>
       </c>
@@ -6204,7 +6247,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>428</v>
       </c>
@@ -6212,7 +6255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>429</v>
       </c>
@@ -6220,7 +6263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>430</v>
       </c>
@@ -6228,7 +6271,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>431</v>
       </c>
@@ -6236,7 +6279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -6244,7 +6287,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>433</v>
       </c>
@@ -6252,7 +6295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -6260,7 +6303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>435</v>
       </c>
@@ -6271,7 +6314,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>436</v>
       </c>
@@ -6279,7 +6322,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>437</v>
       </c>
@@ -6287,7 +6330,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>438</v>
       </c>
@@ -6295,7 +6338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>439</v>
       </c>
@@ -6303,7 +6346,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>440</v>
       </c>
@@ -6311,7 +6354,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>441</v>
       </c>
@@ -6319,7 +6362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>442</v>
       </c>
@@ -6327,7 +6370,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>443</v>
       </c>
@@ -6335,7 +6378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>444</v>
       </c>
@@ -6343,7 +6386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>445</v>
       </c>
@@ -6351,7 +6394,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>446</v>
       </c>
@@ -6359,7 +6402,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>267</v>
       </c>
@@ -6367,7 +6410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -6375,7 +6418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>447</v>
       </c>
@@ -6383,7 +6426,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>448</v>
       </c>
@@ -6391,7 +6434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>449</v>
       </c>
@@ -6399,7 +6442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -6407,7 +6450,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>451</v>
       </c>
@@ -6415,7 +6458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -6423,7 +6466,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>452</v>
       </c>
@@ -6431,7 +6474,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>453</v>
       </c>
@@ -6439,7 +6482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -6447,7 +6490,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>454</v>
       </c>
@@ -6455,7 +6498,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>455</v>
       </c>
@@ -6463,7 +6506,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>456</v>
       </c>
@@ -6471,7 +6514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>457</v>
       </c>
@@ -6479,7 +6522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>458</v>
       </c>
@@ -6487,7 +6530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>459</v>
       </c>
@@ -6495,7 +6538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>460</v>
       </c>
@@ -6503,7 +6546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>461</v>
       </c>
@@ -6511,7 +6554,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>462</v>
       </c>
@@ -6519,7 +6562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -6527,7 +6570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>464</v>
       </c>
@@ -6535,7 +6578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>465</v>
       </c>
@@ -6543,7 +6586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>466</v>
       </c>
@@ -6551,7 +6594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>467</v>
       </c>
@@ -6559,7 +6602,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>468</v>
       </c>
@@ -6567,7 +6610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>469</v>
       </c>
@@ -6575,7 +6618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>470</v>
       </c>
@@ -6583,7 +6626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>471</v>
       </c>
@@ -6591,7 +6634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>472</v>
       </c>
@@ -6599,7 +6642,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>473</v>
       </c>
@@ -6607,7 +6650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>474</v>
       </c>
@@ -6615,7 +6658,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -6623,7 +6666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>475</v>
       </c>
@@ -6631,7 +6674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -6639,7 +6682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>477</v>
       </c>
@@ -6647,7 +6690,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>478</v>
       </c>
@@ -6655,7 +6698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>779</v>
       </c>
@@ -6663,7 +6706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>780</v>
       </c>
@@ -6671,7 +6714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>479</v>
       </c>
@@ -6679,7 +6722,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>480</v>
       </c>
@@ -6690,7 +6733,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>481</v>
       </c>
@@ -6698,7 +6741,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>482</v>
       </c>
@@ -6707,7 +6750,7 @@
       </c>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>483</v>
       </c>
@@ -6715,7 +6758,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>484</v>
       </c>
@@ -6723,7 +6766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>485</v>
       </c>
@@ -6731,7 +6774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>486</v>
       </c>
@@ -6739,7 +6782,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>487</v>
       </c>
@@ -6747,7 +6790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>488</v>
       </c>
@@ -6755,7 +6798,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>489</v>
       </c>
@@ -6763,7 +6806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>490</v>
       </c>
@@ -6771,7 +6814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>491</v>
       </c>
@@ -6779,7 +6822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>492</v>
       </c>
@@ -6787,7 +6830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>493</v>
       </c>
@@ -6796,7 +6839,7 @@
       </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>494</v>
       </c>
@@ -6804,7 +6847,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>495</v>
       </c>
@@ -6812,7 +6855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>496</v>
       </c>
@@ -6820,7 +6863,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>497</v>
       </c>
@@ -6828,7 +6871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>498</v>
       </c>
@@ -6836,7 +6879,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>499</v>
       </c>
@@ -6844,7 +6887,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>500</v>
       </c>
@@ -6853,7 +6896,7 @@
       </c>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>501</v>
       </c>
@@ -6882,13 +6925,13 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -6896,7 +6939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>502</v>
       </c>
@@ -6914,7 +6957,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6928,12 +6971,12 @@
       <selection activeCell="A2" sqref="A2:A337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -6941,1682 +6984,1682 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>731</v>
       </c>
